--- a/Development/Design Archive/SIMON_stats.xlsx
+++ b/Development/Design Archive/SIMON_stats.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\Documents\Part III\3rd-Year-Project\Development\Design Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F18C816-A21D-4A4E-AB9D-D4AA4F3D1B8C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01711BF1-1C47-4CA9-A829-4CDF786E7325}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="5" xr2:uid="{EE9B88FB-1D0E-4AFA-A3BE-CC1D0DFF1109}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="7" xr2:uid="{EE9B88FB-1D0E-4AFA-A3BE-CC1D0DFF1109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Approach 2" sheetId="6" r:id="rId2"/>
-    <sheet name="Chart1" sheetId="7" r:id="rId3"/>
-    <sheet name="Chart2" sheetId="8" r:id="rId4"/>
-    <sheet name="Chart3" sheetId="9" r:id="rId5"/>
-    <sheet name="Chart4" sheetId="10" r:id="rId6"/>
-    <sheet name="Approach 3" sheetId="5" r:id="rId7"/>
+    <sheet name="Approach 3" sheetId="5" r:id="rId3"/>
+    <sheet name="Chart1" sheetId="7" r:id="rId4"/>
+    <sheet name="Chart2" sheetId="8" r:id="rId5"/>
+    <sheet name="Chart3" sheetId="9" r:id="rId6"/>
+    <sheet name="Chart4" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="85">
   <si>
     <t>Version</t>
   </si>
@@ -296,7 +297,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +316,13 @@
       <color theme="1"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -975,10 +983,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1256,6 +1265,120 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1265,15 +1388,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1283,10 +1400,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,102 +1412,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,18 +1439,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,14 +1493,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-GB"/>
+              <a:rPr lang="en-GB" sz="2000"/>
               <a:t>Throughput</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
+              <a:rPr lang="en-GB" sz="2000" baseline="0"/>
               <a:t> of the SIMON Algorithm in both Software and Hardware with Various Block Sizes</a:t>
             </a:r>
-            <a:endParaRPr lang="en-GB"/>
+            <a:endParaRPr lang="en-GB" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1684,14 +1714,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="2000"/>
                   <a:t>Block Size</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:rPr lang="en-GB" sz="2000" baseline="0"/>
                   <a:t> (bits)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-GB"/>
+                <a:endParaRPr lang="en-GB" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1746,7 +1776,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1809,7 +1839,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-GB"/>
+                  <a:rPr lang="en-GB" sz="2000"/>
                   <a:t>Throughput (Mbits/s)</a:t>
                 </a:r>
               </a:p>
@@ -1860,7 +1890,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1902,7 +1932,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1972,6 +2002,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400"/>
+              <a:t>Logic Elements</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" baseline="0"/>
+              <a:t> required for the SIMON algorithm Synthesised for the DE1-SoC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1985,7 +2045,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2222,6 +2282,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2244,7 +2359,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2287,6 +2402,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Logic Elements</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2303,7 +2473,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2330,6 +2500,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2377,6 +2578,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Registers required for the SIMON algorithm Synthesised for the DE1-SoC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2800">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2390,7 +2621,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2627,6 +2858,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2649,7 +2935,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2692,6 +2978,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Registers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2708,7 +3049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2735,6 +3076,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2782,6 +3154,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="2400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Input/Output Pins required for the SIMON algorithm Synthesised for the DE1-SoC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2795,7 +3197,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3032,6 +3434,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Mode</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3054,7 +3511,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3097,6 +3554,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="2000"/>
+                  <a:t>Pins</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3113,7 +3625,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5348,7 +5860,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B1AA3CF7-C120-4348-BCB4-3EBC1B2E467D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5359,7 +5871,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{CDE95130-C815-4AFC-9C56-0184AA406C70}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5370,7 +5882,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{DDD1F5E2-2F0E-4F64-AD31-B2680BE63DB7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5381,7 +5893,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{44A975CF-1519-4897-A97D-224C56CB4E82}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="140" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5392,7 +5904,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6074229"/>
+    <xdr:ext cx="9299823" cy="6075284"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5425,7 +5937,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6074229"/>
+    <xdr:ext cx="9299823" cy="6075284"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5458,7 +5970,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6074229"/>
+    <xdr:ext cx="9299823" cy="6075284"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5491,7 +6003,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6074229"/>
+    <xdr:ext cx="9299823" cy="6075284"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -5844,44 +6356,44 @@
   <sheetData>
     <row r="2" spans="3:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="3:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="99" t="s">
+      <c r="F3" s="132"/>
+      <c r="G3" s="132"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="135" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="100"/>
-      <c r="K3" s="100"/>
-      <c r="L3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="N3" s="100"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
       <c r="Q3" s="38"/>
-      <c r="R3" s="93" t="s">
+      <c r="R3" s="131" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="95"/>
+      <c r="S3" s="132"/>
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="133"/>
       <c r="W3" s="41"/>
-      <c r="X3" s="93" t="s">
+      <c r="X3" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="94"/>
-      <c r="Z3" s="95"/>
+      <c r="Y3" s="132"/>
+      <c r="Z3" s="133"/>
     </row>
     <row r="4" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="102"/>
-      <c r="D4" s="103"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
       <c r="E4" s="43" t="s">
         <v>8</v>
       </c>
@@ -5894,20 +6406,20 @@
       <c r="H4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="127" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96" t="s">
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="128"/>
+      <c r="M4" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="98"/>
-      <c r="O4" s="96" t="s">
+      <c r="N4" s="128"/>
+      <c r="O4" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="98"/>
+      <c r="P4" s="128"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="43" t="s">
         <v>68</v>
@@ -6661,8 +7173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5B3A1C5-D8EF-447C-BBA9-5A885186FA2E}">
   <dimension ref="C3:AE16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R58" sqref="R58"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6688,60 +7200,60 @@
     <col min="22" max="22" width="9.453125" style="68" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="4.6328125" style="68" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="1.54296875" style="68" customWidth="1"/>
-    <col min="25" max="25" width="5.81640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.08984375" style="113" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.453125" style="114" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.08984375" style="113" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="113" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6328125" style="113" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.08984375" style="99" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.453125" style="100" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="99" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.08984375" style="99" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7265625" style="99" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.6328125" style="99" bestFit="1" customWidth="1"/>
     <col min="32" max="16384" width="8.7265625" style="68"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="104" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="111" t="s">
+      <c r="R4" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="112"/>
+      <c r="S4" s="147"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="93" t="s">
+      <c r="U4" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="94"/>
-      <c r="W4" s="95"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="115"/>
-      <c r="Z4" s="115"/>
-      <c r="AA4" s="115"/>
-      <c r="AB4" s="115"/>
-      <c r="AC4" s="115"/>
-      <c r="AD4" s="115"/>
+      <c r="V4" s="132"/>
+      <c r="W4" s="133"/>
+      <c r="X4" s="106"/>
+      <c r="Y4" s="138"/>
+      <c r="Z4" s="138"/>
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="138"/>
     </row>
     <row r="5" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="65" t="s">
         <v>8</v>
       </c>
@@ -6754,20 +7266,20 @@
       <c r="H5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="109" t="s">
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="141"/>
+      <c r="M5" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="110"/>
-      <c r="O5" s="109" t="s">
+      <c r="N5" s="143"/>
+      <c r="O5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="110"/>
+      <c r="P5" s="143"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="67" t="s">
         <v>73</v>
@@ -6785,13 +7297,13 @@
       <c r="W5" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="X5" s="122"/>
-      <c r="Y5" s="116"/>
-      <c r="Z5" s="116"/>
-      <c r="AA5" s="117"/>
-      <c r="AB5" s="116"/>
-      <c r="AC5" s="116"/>
-      <c r="AD5" s="117"/>
+      <c r="X5" s="107"/>
+      <c r="Y5" s="101"/>
+      <c r="Z5" s="101"/>
+      <c r="AA5" s="102"/>
+      <c r="AB5" s="101"/>
+      <c r="AC5" s="101"/>
+      <c r="AD5" s="102"/>
     </row>
     <row r="6" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C6" s="43">
@@ -6849,10 +7361,10 @@
       <c r="W6" s="45">
         <v>138</v>
       </c>
-      <c r="X6" s="122"/>
-      <c r="AA6" s="118"/>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="120"/>
+      <c r="X6" s="107"/>
+      <c r="AA6" s="103"/>
+      <c r="AD6" s="104"/>
+      <c r="AE6" s="105"/>
     </row>
     <row r="7" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C7" s="25">
@@ -6909,10 +7421,10 @@
       <c r="W7" s="23">
         <v>178</v>
       </c>
-      <c r="X7" s="122"/>
-      <c r="AA7" s="118"/>
-      <c r="AD7" s="119"/>
-      <c r="AE7" s="120"/>
+      <c r="X7" s="107"/>
+      <c r="AA7" s="103"/>
+      <c r="AD7" s="104"/>
+      <c r="AE7" s="105"/>
     </row>
     <row r="8" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C8" s="25">
@@ -6971,10 +7483,10 @@
       <c r="W8" s="23">
         <v>202</v>
       </c>
-      <c r="X8" s="122"/>
-      <c r="AA8" s="118"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
+      <c r="X8" s="107"/>
+      <c r="AA8" s="103"/>
+      <c r="AD8" s="104"/>
+      <c r="AE8" s="105"/>
     </row>
     <row r="9" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C9" s="25">
@@ -7031,10 +7543,10 @@
       <c r="W9" s="23">
         <v>234</v>
       </c>
-      <c r="X9" s="122"/>
-      <c r="AA9" s="118"/>
-      <c r="AD9" s="119"/>
-      <c r="AE9" s="120"/>
+      <c r="X9" s="107"/>
+      <c r="AA9" s="103"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="105"/>
     </row>
     <row r="10" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C10" s="25">
@@ -7093,10 +7605,10 @@
       <c r="W10" s="23">
         <v>266</v>
       </c>
-      <c r="X10" s="122"/>
-      <c r="AA10" s="118"/>
-      <c r="AD10" s="119"/>
-      <c r="AE10" s="120"/>
+      <c r="X10" s="107"/>
+      <c r="AA10" s="103"/>
+      <c r="AD10" s="104"/>
+      <c r="AE10" s="105"/>
     </row>
     <row r="11" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C11" s="25">
@@ -7151,10 +7663,10 @@
       <c r="W11" s="23">
         <v>298</v>
       </c>
-      <c r="X11" s="122"/>
-      <c r="AA11" s="118"/>
-      <c r="AD11" s="119"/>
-      <c r="AE11" s="120"/>
+      <c r="X11" s="107"/>
+      <c r="AA11" s="103"/>
+      <c r="AD11" s="104"/>
+      <c r="AE11" s="105"/>
     </row>
     <row r="12" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C12" s="25">
@@ -7211,10 +7723,10 @@
       <c r="W12" s="23">
         <v>346</v>
       </c>
-      <c r="X12" s="122"/>
-      <c r="AA12" s="118"/>
-      <c r="AD12" s="119"/>
-      <c r="AE12" s="120"/>
+      <c r="X12" s="107"/>
+      <c r="AA12" s="103"/>
+      <c r="AD12" s="104"/>
+      <c r="AE12" s="105"/>
     </row>
     <row r="13" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C13" s="25">
@@ -7269,10 +7781,10 @@
       <c r="W13" s="23">
         <v>394</v>
       </c>
-      <c r="X13" s="122"/>
-      <c r="AA13" s="118"/>
-      <c r="AD13" s="119"/>
-      <c r="AE13" s="120"/>
+      <c r="X13" s="107"/>
+      <c r="AA13" s="103"/>
+      <c r="AD13" s="104"/>
+      <c r="AE13" s="105"/>
     </row>
     <row r="14" spans="3:31" x14ac:dyDescent="0.35">
       <c r="C14" s="25">
@@ -7329,10 +7841,10 @@
       <c r="W14" s="23">
         <v>458</v>
       </c>
-      <c r="X14" s="122"/>
-      <c r="AA14" s="118"/>
-      <c r="AD14" s="119"/>
-      <c r="AE14" s="120"/>
+      <c r="X14" s="107"/>
+      <c r="AA14" s="103"/>
+      <c r="AD14" s="104"/>
+      <c r="AE14" s="105"/>
     </row>
     <row r="15" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C15" s="26">
@@ -7391,13 +7903,13 @@
       <c r="W15" s="24">
         <v>522</v>
       </c>
-      <c r="X15" s="123"/>
-      <c r="AA15" s="118"/>
-      <c r="AD15" s="119"/>
-      <c r="AE15" s="120"/>
+      <c r="X15" s="108"/>
+      <c r="AA15" s="103"/>
+      <c r="AD15" s="104"/>
+      <c r="AE15" s="105"/>
     </row>
     <row r="16" spans="3:31" x14ac:dyDescent="0.35">
-      <c r="AD16" s="119"/>
+      <c r="AD16" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7421,7 +7933,7 @@
   <dimension ref="C3:AM16"/>
   <sheetViews>
     <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+      <selection activeCell="Y5" sqref="Y5:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7466,63 +7978,63 @@
   <sheetData>
     <row r="3" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="104" t="s">
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="106"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="141"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="111" t="s">
+      <c r="T4" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="112"/>
+      <c r="U4" s="147"/>
       <c r="V4" s="48"/>
-      <c r="W4" s="93" t="s">
+      <c r="W4" s="131" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="94"/>
-      <c r="Y4" s="95"/>
-      <c r="Z4" s="125"/>
-      <c r="AA4" s="139" t="s">
+      <c r="X4" s="132"/>
+      <c r="Y4" s="133"/>
+      <c r="Z4" s="110"/>
+      <c r="AA4" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="140"/>
-      <c r="AC4" s="140"/>
-      <c r="AD4" s="140"/>
-      <c r="AE4" s="141"/>
-      <c r="AF4" s="139" t="s">
+      <c r="AB4" s="149"/>
+      <c r="AC4" s="149"/>
+      <c r="AD4" s="149"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="148" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="140"/>
-      <c r="AH4" s="140"/>
-      <c r="AI4" s="140"/>
-      <c r="AJ4" s="140"/>
-      <c r="AK4" s="140"/>
-      <c r="AL4" s="141"/>
+      <c r="AG4" s="149"/>
+      <c r="AH4" s="149"/>
+      <c r="AI4" s="149"/>
+      <c r="AJ4" s="149"/>
+      <c r="AK4" s="149"/>
+      <c r="AL4" s="150"/>
       <c r="AM4" s="92" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="58" t="s">
         <v>8</v>
       </c>
@@ -7535,23 +8047,23 @@
       <c r="H5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="106"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="141"/>
       <c r="M5" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="109" t="s">
+      <c r="N5" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="110"/>
-      <c r="P5" s="109" t="s">
+      <c r="O5" s="143"/>
+      <c r="P5" s="142" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="143"/>
       <c r="R5" s="64" t="s">
         <v>80</v>
       </c>
@@ -7572,39 +8084,39 @@
       <c r="Y5" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="Z5" s="124"/>
+      <c r="Z5" s="109"/>
       <c r="AA5" s="88" t="s">
         <v>63</v>
       </c>
       <c r="AB5" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="AC5" s="131" t="s">
+      <c r="AC5" s="116" t="s">
         <v>77</v>
       </c>
       <c r="AD5" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="AE5" s="138"/>
+      <c r="AE5" s="123"/>
       <c r="AF5" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="AG5" s="128" t="s">
+      <c r="AG5" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="AH5" s="128" t="s">
+      <c r="AH5" s="113" t="s">
         <v>63</v>
       </c>
       <c r="AI5" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="AJ5" s="131" t="s">
+      <c r="AJ5" s="116" t="s">
         <v>77</v>
       </c>
       <c r="AK5" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="AL5" s="143"/>
+      <c r="AL5" s="125"/>
       <c r="AM5" s="91" t="s">
         <v>79</v>
       </c>
@@ -7664,17 +8176,17 @@
       <c r="X6" s="84">
         <v>1029</v>
       </c>
-      <c r="Y6" s="127">
+      <c r="Y6" s="112">
         <v>167</v>
       </c>
-      <c r="Z6" s="124"/>
+      <c r="Z6" s="109"/>
       <c r="AA6" s="83">
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="AB6" s="84">
         <v>2400</v>
       </c>
-      <c r="AC6" s="132">
+      <c r="AC6" s="117">
         <f>E6*AB6*4</f>
         <v>153600</v>
       </c>
@@ -7682,24 +8194,24 @@
         <f>AC6/(AA6)</f>
         <v>3200000</v>
       </c>
-      <c r="AE6" s="142">
+      <c r="AE6" s="124">
         <f>AD6*0.000001</f>
         <v>3.1999999999999997</v>
       </c>
-      <c r="AF6" s="135">
+      <c r="AF6" s="120">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG6" s="129">
+      <c r="AG6" s="114">
         <v>158442</v>
       </c>
-      <c r="AH6" s="129">
+      <c r="AH6" s="114">
         <f>AF6*(AG6+1)</f>
         <v>1.5844299999999999E-2</v>
       </c>
       <c r="AI6" s="84">
         <v>2400</v>
       </c>
-      <c r="AJ6" s="132">
+      <c r="AJ6" s="117">
         <f>E6*AI6*4</f>
         <v>153600</v>
       </c>
@@ -7707,7 +8219,7 @@
         <f>AJ6/AH6</f>
         <v>9694338.0269245096</v>
       </c>
-      <c r="AL6" s="144">
+      <c r="AL6" s="126">
         <f>AK6*0.000001</f>
         <v>9.694338026924509</v>
       </c>
@@ -7773,14 +8285,14 @@
       <c r="Y7" s="23">
         <v>231</v>
       </c>
-      <c r="Z7" s="124"/>
+      <c r="Z7" s="109"/>
       <c r="AA7" s="78">
         <v>0.03</v>
       </c>
       <c r="AB7" s="77">
         <v>1600</v>
       </c>
-      <c r="AC7" s="132">
+      <c r="AC7" s="117">
         <f t="shared" ref="AC7:AC15" si="1">E7*AB7*4</f>
         <v>153600</v>
       </c>
@@ -7788,25 +8300,25 @@
         <f t="shared" ref="AD7:AD15" si="2">AC7/(AA7)</f>
         <v>5120000</v>
       </c>
-      <c r="AE7" s="142">
+      <c r="AE7" s="124">
         <f t="shared" ref="AE7:AE15" si="3">AD7*0.000001</f>
         <v>5.12</v>
       </c>
-      <c r="AF7" s="135">
+      <c r="AF7" s="120">
         <f>AF6</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG7" s="130">
+      <c r="AG7" s="115">
         <v>118446</v>
       </c>
-      <c r="AH7" s="129">
+      <c r="AH7" s="114">
         <f t="shared" ref="AH7:AH15" si="4">AF7*(AG7+1)</f>
         <v>1.18447E-2</v>
       </c>
       <c r="AI7" s="77">
         <v>1600</v>
       </c>
-      <c r="AJ7" s="132">
+      <c r="AJ7" s="117">
         <f t="shared" ref="AJ7:AJ15" si="5">E7*AI7*4</f>
         <v>153600</v>
       </c>
@@ -7814,7 +8326,7 @@
         <f t="shared" ref="AK7:AK15" si="6">AJ7/AH7</f>
         <v>12967825.272062611</v>
       </c>
-      <c r="AL7" s="144">
+      <c r="AL7" s="126">
         <f t="shared" ref="AL7:AL14" si="7">AK7*0.000001</f>
         <v>12.96782527206261</v>
       </c>
@@ -7882,14 +8394,14 @@
       <c r="Y8" s="23">
         <v>231</v>
       </c>
-      <c r="Z8" s="124"/>
+      <c r="Z8" s="109"/>
       <c r="AA8" s="78">
         <v>0.03</v>
       </c>
       <c r="AB8" s="77">
         <v>1600</v>
       </c>
-      <c r="AC8" s="132">
+      <c r="AC8" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -7897,25 +8409,25 @@
         <f t="shared" si="2"/>
         <v>5120000</v>
       </c>
-      <c r="AE8" s="142">
+      <c r="AE8" s="124">
         <f t="shared" si="3"/>
         <v>5.12</v>
       </c>
-      <c r="AF8" s="135">
+      <c r="AF8" s="120">
         <f t="shared" ref="AF8:AF15" si="9">AF7</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG8" s="130">
+      <c r="AG8" s="115">
         <v>118446</v>
       </c>
-      <c r="AH8" s="129">
+      <c r="AH8" s="114">
         <f t="shared" si="4"/>
         <v>1.18447E-2</v>
       </c>
       <c r="AI8" s="77">
         <v>1600</v>
       </c>
-      <c r="AJ8" s="132">
+      <c r="AJ8" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -7923,7 +8435,7 @@
         <f t="shared" si="6"/>
         <v>12967825.272062611</v>
       </c>
-      <c r="AL8" s="144">
+      <c r="AL8" s="126">
         <f t="shared" si="7"/>
         <v>12.96782527206261</v>
       </c>
@@ -7989,14 +8501,14 @@
       <c r="Y9" s="23">
         <v>295</v>
       </c>
-      <c r="Z9" s="124"/>
+      <c r="Z9" s="109"/>
       <c r="AA9" s="78">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AB9" s="77">
         <v>1200</v>
       </c>
-      <c r="AC9" s="132">
+      <c r="AC9" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8004,25 +8516,25 @@
         <f t="shared" si="2"/>
         <v>4800000</v>
       </c>
-      <c r="AE9" s="142">
+      <c r="AE9" s="124">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AF9" s="135">
+      <c r="AF9" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG9" s="130">
+      <c r="AG9" s="115">
         <v>103252</v>
       </c>
-      <c r="AH9" s="129">
+      <c r="AH9" s="114">
         <f t="shared" si="4"/>
         <v>1.0325299999999999E-2</v>
       </c>
       <c r="AI9" s="77">
         <v>1200</v>
       </c>
-      <c r="AJ9" s="132">
+      <c r="AJ9" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8030,7 +8542,7 @@
         <f t="shared" si="6"/>
         <v>14876081.082389859</v>
       </c>
-      <c r="AL9" s="144">
+      <c r="AL9" s="126">
         <f t="shared" si="7"/>
         <v>14.876081082389859</v>
       </c>
@@ -8098,14 +8610,14 @@
       <c r="Y10" s="23">
         <v>295</v>
       </c>
-      <c r="Z10" s="124"/>
+      <c r="Z10" s="109"/>
       <c r="AA10" s="78">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AB10" s="77">
         <v>1200</v>
       </c>
-      <c r="AC10" s="132">
+      <c r="AC10" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8113,25 +8625,25 @@
         <f t="shared" si="2"/>
         <v>4517647.0588235287</v>
       </c>
-      <c r="AE10" s="142">
+      <c r="AE10" s="124">
         <f t="shared" si="3"/>
         <v>4.5176470588235285</v>
       </c>
-      <c r="AF10" s="135">
+      <c r="AF10" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG10" s="130">
+      <c r="AG10" s="115">
         <v>103252</v>
       </c>
-      <c r="AH10" s="129">
+      <c r="AH10" s="114">
         <f t="shared" si="4"/>
         <v>1.0325299999999999E-2</v>
       </c>
       <c r="AI10" s="77">
         <v>1200</v>
       </c>
-      <c r="AJ10" s="132">
+      <c r="AJ10" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8139,7 +8651,7 @@
         <f t="shared" si="6"/>
         <v>14876081.082389859</v>
       </c>
-      <c r="AL10" s="144">
+      <c r="AL10" s="126">
         <f t="shared" si="7"/>
         <v>14.876081082389859</v>
       </c>
@@ -8203,14 +8715,14 @@
       <c r="Y11" s="23">
         <v>423</v>
       </c>
-      <c r="Z11" s="124"/>
+      <c r="Z11" s="109"/>
       <c r="AA11" s="78">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AB11" s="77">
         <v>800</v>
       </c>
-      <c r="AC11" s="132">
+      <c r="AC11" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8218,25 +8730,25 @@
         <f t="shared" si="2"/>
         <v>4800000</v>
       </c>
-      <c r="AE11" s="142">
+      <c r="AE11" s="124">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AF11" s="135">
+      <c r="AF11" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG11" s="130">
+      <c r="AG11" s="115">
         <v>84862</v>
       </c>
-      <c r="AH11" s="129">
+      <c r="AH11" s="114">
         <f t="shared" si="4"/>
         <v>8.4863000000000004E-3</v>
       </c>
       <c r="AI11" s="77">
         <v>800</v>
       </c>
-      <c r="AJ11" s="132">
+      <c r="AJ11" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8244,7 +8756,7 @@
         <f t="shared" si="6"/>
         <v>18099760.790921837</v>
       </c>
-      <c r="AL11" s="144">
+      <c r="AL11" s="126">
         <f t="shared" si="7"/>
         <v>18.099760790921835</v>
       </c>
@@ -8310,14 +8822,14 @@
       <c r="Y12" s="23">
         <v>423</v>
       </c>
-      <c r="Z12" s="124"/>
+      <c r="Z12" s="109"/>
       <c r="AA12" s="78">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="AB12" s="77">
         <v>800</v>
       </c>
-      <c r="AC12" s="132">
+      <c r="AC12" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8325,25 +8837,25 @@
         <f t="shared" si="2"/>
         <v>4517647.0588235287</v>
       </c>
-      <c r="AE12" s="142">
+      <c r="AE12" s="124">
         <f t="shared" si="3"/>
         <v>4.5176470588235285</v>
       </c>
-      <c r="AF12" s="135">
+      <c r="AF12" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG12" s="130">
+      <c r="AG12" s="115">
         <v>84862</v>
       </c>
-      <c r="AH12" s="129">
+      <c r="AH12" s="114">
         <f t="shared" si="4"/>
         <v>8.4863000000000004E-3</v>
       </c>
       <c r="AI12" s="77">
         <v>800</v>
       </c>
-      <c r="AJ12" s="132">
+      <c r="AJ12" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8351,7 +8863,7 @@
         <f t="shared" si="6"/>
         <v>18099760.790921837</v>
       </c>
-      <c r="AL12" s="144">
+      <c r="AL12" s="126">
         <f t="shared" si="7"/>
         <v>18.099760790921835</v>
       </c>
@@ -8415,14 +8927,14 @@
       <c r="Y13" s="23">
         <v>551</v>
       </c>
-      <c r="Z13" s="124"/>
+      <c r="Z13" s="109"/>
       <c r="AA13" s="78">
         <v>0.03</v>
       </c>
       <c r="AB13" s="77">
         <v>600</v>
       </c>
-      <c r="AC13" s="132">
+      <c r="AC13" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8430,25 +8942,25 @@
         <f t="shared" si="2"/>
         <v>5120000</v>
       </c>
-      <c r="AE13" s="142">
+      <c r="AE13" s="124">
         <f t="shared" si="3"/>
         <v>5.12</v>
       </c>
-      <c r="AF13" s="135">
+      <c r="AF13" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG13" s="130">
+      <c r="AG13" s="115">
         <v>82878</v>
       </c>
-      <c r="AH13" s="129">
+      <c r="AH13" s="114">
         <f t="shared" si="4"/>
         <v>8.2878999999999991E-3</v>
       </c>
       <c r="AI13" s="77">
         <v>600</v>
       </c>
-      <c r="AJ13" s="132">
+      <c r="AJ13" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8456,7 +8968,7 @@
         <f t="shared" si="6"/>
         <v>18533042.145778786</v>
       </c>
-      <c r="AL13" s="144">
+      <c r="AL13" s="126">
         <f t="shared" si="7"/>
         <v>18.533042145778786</v>
       </c>
@@ -8522,14 +9034,14 @@
       <c r="Y14" s="23">
         <v>551</v>
       </c>
-      <c r="Z14" s="124"/>
+      <c r="Z14" s="109"/>
       <c r="AA14" s="78">
         <v>0.03</v>
       </c>
       <c r="AB14" s="77">
         <v>600</v>
       </c>
-      <c r="AC14" s="132">
+      <c r="AC14" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
@@ -8537,25 +9049,25 @@
         <f t="shared" si="2"/>
         <v>5120000</v>
       </c>
-      <c r="AE14" s="142">
+      <c r="AE14" s="124">
         <f t="shared" si="3"/>
         <v>5.12</v>
       </c>
-      <c r="AF14" s="135">
+      <c r="AF14" s="120">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG14" s="130">
+      <c r="AG14" s="115">
         <v>82878</v>
       </c>
-      <c r="AH14" s="129">
+      <c r="AH14" s="114">
         <f t="shared" si="4"/>
         <v>8.2878999999999991E-3</v>
       </c>
       <c r="AI14" s="77">
         <v>600</v>
       </c>
-      <c r="AJ14" s="132">
+      <c r="AJ14" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
@@ -8563,7 +9075,7 @@
         <f t="shared" si="6"/>
         <v>18533042.145778786</v>
       </c>
-      <c r="AL14" s="144">
+      <c r="AL14" s="126">
         <f t="shared" si="7"/>
         <v>18.533042145778786</v>
       </c>
@@ -8631,48 +9143,48 @@
       <c r="Y15" s="24">
         <v>551</v>
       </c>
-      <c r="Z15" s="126"/>
+      <c r="Z15" s="111"/>
       <c r="AA15" s="79">
         <v>3.2000000000000001E-2</v>
       </c>
       <c r="AB15" s="80">
         <v>600</v>
       </c>
-      <c r="AC15" s="132">
+      <c r="AC15" s="117">
         <f t="shared" si="1"/>
         <v>153600</v>
       </c>
-      <c r="AD15" s="133">
+      <c r="AD15" s="118">
         <f t="shared" si="2"/>
         <v>4800000</v>
       </c>
-      <c r="AE15" s="142">
+      <c r="AE15" s="124">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AF15" s="136">
+      <c r="AF15" s="121">
         <f t="shared" si="9"/>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="AG15" s="130">
+      <c r="AG15" s="115">
         <v>82878</v>
       </c>
-      <c r="AH15" s="137">
+      <c r="AH15" s="122">
         <f t="shared" si="4"/>
         <v>8.2878999999999991E-3</v>
       </c>
       <c r="AI15" s="80">
         <v>600</v>
       </c>
-      <c r="AJ15" s="132">
+      <c r="AJ15" s="117">
         <f t="shared" si="5"/>
         <v>153600</v>
       </c>
-      <c r="AK15" s="134">
+      <c r="AK15" s="119">
         <f t="shared" si="6"/>
         <v>18533042.145778786</v>
       </c>
-      <c r="AL15" s="144">
+      <c r="AL15" s="126">
         <f>AK15*0.000001</f>
         <v>18.533042145778786</v>
       </c>
@@ -8691,6 +9203,8 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="I4:R4"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="E4:H4"/>
@@ -8699,12 +9213,514 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="T4:U4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AL4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
     <ignoredError sqref="L6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921E2F8-A528-4B54-889B-D2639774D815}">
+  <dimension ref="C3:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="98" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" s="98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C4" s="43">
+        <v>437</v>
+      </c>
+      <c r="D4" s="83">
+        <v>635</v>
+      </c>
+      <c r="E4">
+        <f>D4-C4</f>
+        <v>198</v>
+      </c>
+      <c r="F4" s="151">
+        <f>E4/C4</f>
+        <v>0.45308924485125857</v>
+      </c>
+      <c r="H4" s="44">
+        <v>656</v>
+      </c>
+      <c r="I4" s="84">
+        <v>1029</v>
+      </c>
+      <c r="J4">
+        <f>I4-H4</f>
+        <v>373</v>
+      </c>
+      <c r="K4" s="151">
+        <f>J4/H4</f>
+        <v>0.56859756097560976</v>
+      </c>
+      <c r="M4" s="45">
+        <v>138</v>
+      </c>
+      <c r="N4" s="112">
+        <v>167</v>
+      </c>
+      <c r="O4">
+        <f>N4-M4</f>
+        <v>29</v>
+      </c>
+      <c r="P4" s="151">
+        <f>O4/M4</f>
+        <v>0.21014492753623187</v>
+      </c>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C5" s="93">
+        <v>717</v>
+      </c>
+      <c r="D5" s="93">
+        <v>971</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E13" si="0">D5-C5</f>
+        <v>254</v>
+      </c>
+      <c r="F5" s="151">
+        <f t="shared" ref="F5:F13" si="1">E5/C5</f>
+        <v>0.35425383542538352</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1049</v>
+      </c>
+      <c r="I5" s="10">
+        <v>1542</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J13" si="2">I5-H5</f>
+        <v>493</v>
+      </c>
+      <c r="K5" s="151">
+        <f t="shared" ref="K5:K13" si="3">J5/H5</f>
+        <v>0.46997140133460441</v>
+      </c>
+      <c r="M5" s="94">
+        <v>178</v>
+      </c>
+      <c r="N5" s="94">
+        <v>231</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O13" si="4">N5-M5</f>
+        <v>53</v>
+      </c>
+      <c r="P5" s="151">
+        <f t="shared" ref="P5:P13" si="5">O5/M5</f>
+        <v>0.29775280898876405</v>
+      </c>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C6" s="93">
+        <v>730</v>
+      </c>
+      <c r="D6" s="93">
+        <v>997</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>267</v>
+      </c>
+      <c r="F6" s="151">
+        <f t="shared" si="1"/>
+        <v>0.36575342465753424</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1073</v>
+      </c>
+      <c r="I6" s="10">
+        <v>1590</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>517</v>
+      </c>
+      <c r="K6" s="151">
+        <f t="shared" si="3"/>
+        <v>0.48182665424044735</v>
+      </c>
+      <c r="M6" s="94">
+        <v>202</v>
+      </c>
+      <c r="N6" s="94">
+        <v>231</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="P6" s="151">
+        <f t="shared" si="5"/>
+        <v>0.14356435643564355</v>
+      </c>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C7" s="93">
+        <v>1123</v>
+      </c>
+      <c r="D7" s="93">
+        <v>1446</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="F7" s="151">
+        <f t="shared" si="1"/>
+        <v>0.28762243989314334</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1585</v>
+      </c>
+      <c r="I7" s="10">
+        <v>2214</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="2"/>
+        <v>629</v>
+      </c>
+      <c r="K7" s="151">
+        <f t="shared" si="3"/>
+        <v>0.39684542586750787</v>
+      </c>
+      <c r="M7" s="94">
+        <v>234</v>
+      </c>
+      <c r="N7" s="94">
+        <v>295</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="P7" s="151">
+        <f t="shared" si="5"/>
+        <v>0.2606837606837607</v>
+      </c>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C8" s="93">
+        <v>1123</v>
+      </c>
+      <c r="D8" s="93">
+        <v>1457</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="F8" s="151">
+        <f t="shared" si="1"/>
+        <v>0.29741763134461263</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1681</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2342</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="2"/>
+        <v>661</v>
+      </c>
+      <c r="K8" s="151">
+        <f t="shared" si="3"/>
+        <v>0.39321832242712673</v>
+      </c>
+      <c r="M8" s="94">
+        <v>266</v>
+      </c>
+      <c r="N8" s="94">
+        <v>295</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="P8" s="151">
+        <f t="shared" si="5"/>
+        <v>0.10902255639097744</v>
+      </c>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C9" s="93">
+        <v>1905</v>
+      </c>
+      <c r="D9" s="93">
+        <v>2337</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="F9" s="151">
+        <f t="shared" si="1"/>
+        <v>0.22677165354330708</v>
+      </c>
+      <c r="H9" s="10">
+        <v>2801</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3654</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>853</v>
+      </c>
+      <c r="K9" s="151">
+        <f t="shared" si="3"/>
+        <v>0.30453409496608352</v>
+      </c>
+      <c r="M9" s="94">
+        <v>298</v>
+      </c>
+      <c r="N9" s="94">
+        <v>423</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>125</v>
+      </c>
+      <c r="P9" s="151">
+        <f t="shared" si="5"/>
+        <v>0.41946308724832215</v>
+      </c>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C10" s="93">
+        <v>2024</v>
+      </c>
+      <c r="D10" s="93">
+        <v>2501</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>477</v>
+      </c>
+      <c r="F10" s="151">
+        <f t="shared" si="1"/>
+        <v>0.23567193675889328</v>
+      </c>
+      <c r="H10" s="10">
+        <v>2945</v>
+      </c>
+      <c r="I10" s="10">
+        <v>3846</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>901</v>
+      </c>
+      <c r="K10" s="151">
+        <f t="shared" si="3"/>
+        <v>0.30594227504244481</v>
+      </c>
+      <c r="M10" s="94">
+        <v>346</v>
+      </c>
+      <c r="N10" s="94">
+        <v>423</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="P10" s="151">
+        <f t="shared" si="5"/>
+        <v>0.22254335260115607</v>
+      </c>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C11" s="93">
+        <v>3266</v>
+      </c>
+      <c r="D11" s="93">
+        <v>3813</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>547</v>
+      </c>
+      <c r="F11" s="151">
+        <f t="shared" si="1"/>
+        <v>0.16748315982853643</v>
+      </c>
+      <c r="H11" s="10">
+        <v>4754</v>
+      </c>
+      <c r="I11" s="10">
+        <v>5863</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>1109</v>
+      </c>
+      <c r="K11" s="151">
+        <f t="shared" si="3"/>
+        <v>0.23327724021876314</v>
+      </c>
+      <c r="M11" s="94">
+        <v>394</v>
+      </c>
+      <c r="N11" s="94">
+        <v>551</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="P11" s="151">
+        <f t="shared" si="5"/>
+        <v>0.39847715736040606</v>
+      </c>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C12" s="93">
+        <v>3627</v>
+      </c>
+      <c r="D12" s="93">
+        <v>4115</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>488</v>
+      </c>
+      <c r="F12" s="151">
+        <f t="shared" si="1"/>
+        <v>0.13454645712710228</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4882</v>
+      </c>
+      <c r="I12" s="10">
+        <v>6055</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>1173</v>
+      </c>
+      <c r="K12" s="151">
+        <f t="shared" si="3"/>
+        <v>0.24027038099139697</v>
+      </c>
+      <c r="M12" s="94">
+        <v>458</v>
+      </c>
+      <c r="N12" s="94">
+        <v>551</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="P12" s="151">
+        <f t="shared" si="5"/>
+        <v>0.20305676855895197</v>
+      </c>
+    </row>
+    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C13" s="95">
+        <v>3498</v>
+      </c>
+      <c r="D13" s="95">
+        <v>4117</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>619</v>
+      </c>
+      <c r="F13" s="151">
+        <f t="shared" si="1"/>
+        <v>0.17695826186392224</v>
+      </c>
+      <c r="H13" s="16">
+        <v>5138</v>
+      </c>
+      <c r="I13" s="16">
+        <v>6375</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>1237</v>
+      </c>
+      <c r="K13" s="151">
+        <f t="shared" si="3"/>
+        <v>0.24075515764889061</v>
+      </c>
+      <c r="M13" s="96">
+        <v>522</v>
+      </c>
+      <c r="N13" s="96">
+        <v>551</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="P13" s="151">
+        <f t="shared" si="5"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="K14" s="151"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="E15" s="152">
+        <f>AVERAGE(E4:E13)</f>
+        <v>393.9</v>
+      </c>
+      <c r="F15" s="151">
+        <f>AVERAGE(F4:F13)</f>
+        <v>0.26995680452936932</v>
+      </c>
+      <c r="J15">
+        <f>AVERAGE(J4:J13)</f>
+        <v>794.6</v>
+      </c>
+      <c r="K15" s="151">
+        <f>AVERAGE(K4:K13)</f>
+        <v>0.36352385137128745</v>
+      </c>
+      <c r="O15">
+        <f>AVERAGE(O4:O13)</f>
+        <v>68.2</v>
+      </c>
+      <c r="P15" s="151">
+        <f>AVERAGE(P4:P13)</f>
+        <v>0.23202643313597693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Development/Design Archive/SIMON_stats.xlsx
+++ b/Development/Design Archive/SIMON_stats.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\Documents\Part III\3rd-Year-Project\Development\Design Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\Documents\Part III\COMP3200\3rd-Year-Project\Development\Design Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01711BF1-1C47-4CA9-A829-4CDF786E7325}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBE07A4-C7A1-47B3-AC21-2B9958257068}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="7" xr2:uid="{EE9B88FB-1D0E-4AFA-A3BE-CC1D0DFF1109}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="2" xr2:uid="{EE9B88FB-1D0E-4AFA-A3BE-CC1D0DFF1109}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="89">
   <si>
     <t>Version</t>
   </si>
@@ -288,6 +288,18 @@
   <si>
     <t>Period</t>
   </si>
+  <si>
+    <t>426.36 mW</t>
+  </si>
+  <si>
+    <t>428.87 mW</t>
+  </si>
+  <si>
+    <t>428.88 mW</t>
+  </si>
+  <si>
+    <t>419.58 mW</t>
+  </si>
 </sst>
 </file>
 
@@ -1367,80 +1379,80 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6335,65 +6347,65 @@
       <selection activeCell="C3" sqref="C3:Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="9.1796875" style="1"/>
-    <col min="9" max="11" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="22.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.1796875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="8" width="9.140625" style="1"/>
+    <col min="9" max="11" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.1796875" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1796875" style="1"/>
+    <col min="23" max="23" width="2.140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="3:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C3" s="127" t="s">
+    <row r="2" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="3:26" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="131" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="132"/>
-      <c r="G3" s="132"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="135" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="137" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="137"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
       <c r="Q3" s="38"/>
-      <c r="R3" s="131" t="s">
+      <c r="R3" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="S3" s="132"/>
-      <c r="T3" s="132"/>
-      <c r="U3" s="132"/>
-      <c r="V3" s="133"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="135"/>
       <c r="W3" s="41"/>
-      <c r="X3" s="131" t="s">
+      <c r="X3" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="132"/>
-      <c r="Z3" s="133"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="135"/>
     </row>
-    <row r="4" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="129"/>
-      <c r="D4" s="130"/>
+    <row r="4" spans="3:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
       <c r="E4" s="43" t="s">
         <v>8</v>
       </c>
@@ -6406,20 +6418,20 @@
       <c r="H4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="127" t="s">
+      <c r="I4" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="127" t="s">
+      <c r="J4" s="136"/>
+      <c r="K4" s="136"/>
+      <c r="L4" s="130"/>
+      <c r="M4" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="128"/>
-      <c r="O4" s="127" t="s">
+      <c r="N4" s="130"/>
+      <c r="O4" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="128"/>
+      <c r="P4" s="130"/>
       <c r="Q4" s="39"/>
       <c r="R4" s="43" t="s">
         <v>68</v>
@@ -6447,7 +6459,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="3:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:26" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="27">
         <v>0</v>
       </c>
@@ -6518,7 +6530,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C6" s="11">
         <f t="shared" ref="C6:C13" si="0">C5+1</f>
         <v>1</v>
@@ -6588,7 +6600,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C7" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -6660,7 +6672,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6730,7 +6742,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6802,7 +6814,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6870,7 +6882,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6940,7 +6952,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7008,7 +7020,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7078,7 +7090,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="14" spans="3:26" ht="14.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="18">
         <f t="shared" ref="C14" si="2">C13+1</f>
         <v>9</v>
@@ -7177,83 +7189,83 @@
       <selection activeCell="W5" sqref="W5:W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="68"/>
-    <col min="3" max="3" width="1.90625" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="68"/>
+    <col min="3" max="3" width="1.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="68" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.90625" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="21.26953125" style="68" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.54296875" style="68" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.453125" style="68" customWidth="1"/>
-    <col min="20" max="20" width="1.54296875" style="68" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9.453125" style="68" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.6328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="1.54296875" style="68" customWidth="1"/>
-    <col min="25" max="25" width="5.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.08984375" style="99" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.453125" style="100" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.08984375" style="99" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.7265625" style="99" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.6328125" style="99" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="68"/>
+    <col min="13" max="15" width="21.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.5703125" style="68" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.42578125" style="68" customWidth="1"/>
+    <col min="20" max="20" width="1.5703125" style="68" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="1.5703125" style="68" customWidth="1"/>
+    <col min="25" max="25" width="5.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="99" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" style="99" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.5703125" style="99" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="127" t="s">
+    <row r="3" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="139" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
       <c r="Q4" s="47"/>
-      <c r="R4" s="146" t="s">
+      <c r="R4" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="S4" s="147"/>
+      <c r="S4" s="149"/>
       <c r="T4" s="48"/>
-      <c r="U4" s="131" t="s">
+      <c r="U4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="132"/>
-      <c r="W4" s="133"/>
+      <c r="V4" s="134"/>
+      <c r="W4" s="135"/>
       <c r="X4" s="106"/>
-      <c r="Y4" s="138"/>
-      <c r="Z4" s="138"/>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
-      <c r="AD4" s="138"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
     </row>
-    <row r="5" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
+    <row r="5" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="65" t="s">
         <v>8</v>
       </c>
@@ -7266,20 +7278,20 @@
       <c r="H5" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="142" t="s">
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
+      <c r="M5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="143"/>
-      <c r="O5" s="142" t="s">
+      <c r="N5" s="145"/>
+      <c r="O5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="143"/>
+      <c r="P5" s="145"/>
       <c r="Q5" s="51"/>
       <c r="R5" s="67" t="s">
         <v>73</v>
@@ -7305,7 +7317,7 @@
       <c r="AC5" s="101"/>
       <c r="AD5" s="102"/>
     </row>
-    <row r="6" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C6" s="43">
         <v>0</v>
       </c>
@@ -7366,7 +7378,7 @@
       <c r="AD6" s="104"/>
       <c r="AE6" s="105"/>
     </row>
-    <row r="7" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C7" s="25">
         <f t="shared" ref="C7:C15" si="0">C6+1</f>
         <v>1</v>
@@ -7426,7 +7438,7 @@
       <c r="AD7" s="104"/>
       <c r="AE7" s="105"/>
     </row>
-    <row r="8" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -7488,7 +7500,7 @@
       <c r="AD8" s="104"/>
       <c r="AE8" s="105"/>
     </row>
-    <row r="9" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -7548,7 +7560,7 @@
       <c r="AD9" s="104"/>
       <c r="AE9" s="105"/>
     </row>
-    <row r="10" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7610,7 +7622,7 @@
       <c r="AD10" s="104"/>
       <c r="AE10" s="105"/>
     </row>
-    <row r="11" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7668,7 +7680,7 @@
       <c r="AD11" s="104"/>
       <c r="AE11" s="105"/>
     </row>
-    <row r="12" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C12" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7728,7 +7740,7 @@
       <c r="AD12" s="104"/>
       <c r="AE12" s="105"/>
     </row>
-    <row r="13" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7786,7 +7798,7 @@
       <c r="AD13" s="104"/>
       <c r="AE13" s="105"/>
     </row>
-    <row r="14" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:31" x14ac:dyDescent="0.25">
       <c r="C14" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7846,7 +7858,7 @@
       <c r="AD14" s="104"/>
       <c r="AE14" s="105"/>
     </row>
-    <row r="15" spans="3:31" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="26">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7908,7 +7920,7 @@
       <c r="AD15" s="104"/>
       <c r="AE15" s="105"/>
     </row>
-    <row r="16" spans="3:31" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:31" x14ac:dyDescent="0.25">
       <c r="AD16" s="104"/>
     </row>
   </sheetData>
@@ -7930,111 +7942,113 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD09BB4-2C5C-435C-831B-8D251DCFFAEB}">
-  <dimension ref="C3:AM16"/>
+  <dimension ref="C3:AP16"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5:Y15"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.7265625" style="68"/>
-    <col min="3" max="3" width="1.90625" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" style="68" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.7109375" style="68"/>
+    <col min="3" max="3" width="1.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="68" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="68" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.54296875" style="68" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" style="68" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.90625" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.26953125" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="68" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="68" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.90625" style="68" customWidth="1"/>
-    <col min="14" max="16" width="21.26953125" style="68" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.08984375" style="68" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.08984375" style="68" customWidth="1"/>
-    <col min="19" max="19" width="1.54296875" style="68" customWidth="1"/>
-    <col min="20" max="20" width="10.453125" style="68" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.453125" style="68" customWidth="1"/>
-    <col min="22" max="22" width="1.54296875" style="68" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.453125" style="68" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="4.6328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="1.54296875" style="68" customWidth="1"/>
-    <col min="27" max="27" width="5.81640625" style="68" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="68" customWidth="1"/>
+    <col min="14" max="16" width="21.28515625" style="68" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" style="68" customWidth="1"/>
+    <col min="19" max="19" width="1.5703125" style="68" customWidth="1"/>
+    <col min="20" max="20" width="10.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.42578125" style="68" customWidth="1"/>
+    <col min="22" max="22" width="1.5703125" style="68" customWidth="1"/>
+    <col min="23" max="23" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="4.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="1.5703125" style="68" customWidth="1"/>
+    <col min="27" max="27" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="68" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.453125" style="69" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.453125" style="69" customWidth="1"/>
-    <col min="32" max="32" width="8.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="8.81640625" style="68" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="69" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="69" customWidth="1"/>
+    <col min="32" max="32" width="8.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="8.85546875" style="68" customWidth="1"/>
     <col min="35" max="35" width="8" style="68" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="6.81640625" style="68" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.7265625" style="68" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7265625" style="68" customWidth="1"/>
-    <col min="39" max="39" width="10.6328125" style="68" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.7265625" style="68"/>
+    <col min="36" max="36" width="6.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" style="68" customWidth="1"/>
+    <col min="39" max="39" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.7109375" style="68"/>
+    <col min="41" max="42" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.7109375" style="68"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="4" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="127" t="s">
+    <row r="3" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="131" t="s">
+      <c r="D4" s="130"/>
+      <c r="E4" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="139" t="s">
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="141" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="140"/>
-      <c r="O4" s="140"/>
-      <c r="P4" s="140"/>
-      <c r="Q4" s="140"/>
-      <c r="R4" s="141"/>
+      <c r="J4" s="142"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
+      <c r="N4" s="142"/>
+      <c r="O4" s="142"/>
+      <c r="P4" s="142"/>
+      <c r="Q4" s="142"/>
+      <c r="R4" s="143"/>
       <c r="S4" s="47"/>
-      <c r="T4" s="146" t="s">
+      <c r="T4" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="U4" s="147"/>
+      <c r="U4" s="149"/>
       <c r="V4" s="48"/>
-      <c r="W4" s="131" t="s">
+      <c r="W4" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="X4" s="132"/>
-      <c r="Y4" s="133"/>
+      <c r="X4" s="134"/>
+      <c r="Y4" s="135"/>
       <c r="Z4" s="110"/>
-      <c r="AA4" s="148" t="s">
+      <c r="AA4" s="150" t="s">
         <v>76</v>
       </c>
-      <c r="AB4" s="149"/>
-      <c r="AC4" s="149"/>
-      <c r="AD4" s="149"/>
-      <c r="AE4" s="150"/>
-      <c r="AF4" s="148" t="s">
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="152"/>
+      <c r="AF4" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="AG4" s="149"/>
-      <c r="AH4" s="149"/>
-      <c r="AI4" s="149"/>
-      <c r="AJ4" s="149"/>
-      <c r="AK4" s="149"/>
-      <c r="AL4" s="150"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="151"/>
+      <c r="AJ4" s="151"/>
+      <c r="AK4" s="151"/>
+      <c r="AL4" s="152"/>
       <c r="AM4" s="92" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
+    <row r="5" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="146"/>
+      <c r="D5" s="147"/>
       <c r="E5" s="58" t="s">
         <v>8</v>
       </c>
@@ -8047,23 +8061,23 @@
       <c r="H5" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="I5" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="141"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="143"/>
       <c r="M5" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="N5" s="142" t="s">
+      <c r="N5" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="O5" s="143"/>
-      <c r="P5" s="142" t="s">
+      <c r="O5" s="145"/>
+      <c r="P5" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="143"/>
+      <c r="Q5" s="145"/>
       <c r="R5" s="64" t="s">
         <v>80</v>
       </c>
@@ -8121,7 +8135,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C6" s="43">
         <v>0</v>
       </c>
@@ -8227,8 +8241,14 @@
         <f>AK6/AD6</f>
         <v>3.0294806334139093</v>
       </c>
+      <c r="AO6" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP6" s="68" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="7" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C7" s="11">
         <f t="shared" ref="C7:C14" si="0">C6+1</f>
         <v>1</v>
@@ -8334,8 +8354,14 @@
         <f t="shared" ref="AM7:AM15" si="8">AK7/AD7</f>
         <v>2.5327783734497289</v>
       </c>
+      <c r="AO7" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP7" s="68" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="8" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C8" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -8443,8 +8469,11 @@
         <f t="shared" si="8"/>
         <v>2.5327783734497289</v>
       </c>
+      <c r="AO8" s="68" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="9" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C9" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -8551,7 +8580,7 @@
         <v>3.0991835588312209</v>
       </c>
     </row>
-    <row r="10" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C10" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8660,7 +8689,7 @@
         <v>3.2928825312581727</v>
       </c>
     </row>
-    <row r="11" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C11" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8765,7 +8794,7 @@
         <v>3.7707834981087163</v>
       </c>
     </row>
-    <row r="12" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C12" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8872,7 +8901,7 @@
         <v>4.0064574667405113</v>
       </c>
     </row>
-    <row r="13" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8977,7 +9006,7 @@
         <v>3.6197347940974192</v>
       </c>
     </row>
-    <row r="14" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:42" x14ac:dyDescent="0.25">
       <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -9084,7 +9113,7 @@
         <v>3.6197347940974192</v>
       </c>
     </row>
-    <row r="15" spans="3:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="18">
         <f t="shared" ref="C15" si="10">C14+1</f>
         <v>9</v>
@@ -9193,7 +9222,7 @@
         <v>3.8610504470372473</v>
       </c>
     </row>
-    <row r="16" spans="3:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:42" x14ac:dyDescent="0.25">
       <c r="AK16" s="70"/>
       <c r="AL16" s="70"/>
       <c r="AM16" s="68">
@@ -9225,13 +9254,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9921E2F8-A528-4B54-889B-D2639774D815}">
   <dimension ref="C3:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="97" t="s">
         <v>65</v>
       </c>
@@ -9251,7 +9280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C4" s="43">
         <v>437</v>
       </c>
@@ -9262,7 +9291,7 @@
         <f>D4-C4</f>
         <v>198</v>
       </c>
-      <c r="F4" s="151">
+      <c r="F4" s="127">
         <f>E4/C4</f>
         <v>0.45308924485125857</v>
       </c>
@@ -9276,7 +9305,7 @@
         <f>I4-H4</f>
         <v>373</v>
       </c>
-      <c r="K4" s="151">
+      <c r="K4" s="127">
         <f>J4/H4</f>
         <v>0.56859756097560976</v>
       </c>
@@ -9290,12 +9319,12 @@
         <f>N4-M4</f>
         <v>29</v>
       </c>
-      <c r="P4" s="151">
+      <c r="P4" s="127">
         <f>O4/M4</f>
         <v>0.21014492753623187</v>
       </c>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C5" s="93">
         <v>717</v>
       </c>
@@ -9306,7 +9335,7 @@
         <f t="shared" ref="E5:E13" si="0">D5-C5</f>
         <v>254</v>
       </c>
-      <c r="F5" s="151">
+      <c r="F5" s="127">
         <f t="shared" ref="F5:F13" si="1">E5/C5</f>
         <v>0.35425383542538352</v>
       </c>
@@ -9320,7 +9349,7 @@
         <f t="shared" ref="J5:J13" si="2">I5-H5</f>
         <v>493</v>
       </c>
-      <c r="K5" s="151">
+      <c r="K5" s="127">
         <f t="shared" ref="K5:K13" si="3">J5/H5</f>
         <v>0.46997140133460441</v>
       </c>
@@ -9334,12 +9363,12 @@
         <f t="shared" ref="O5:O13" si="4">N5-M5</f>
         <v>53</v>
       </c>
-      <c r="P5" s="151">
+      <c r="P5" s="127">
         <f t="shared" ref="P5:P13" si="5">O5/M5</f>
         <v>0.29775280898876405</v>
       </c>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C6" s="93">
         <v>730</v>
       </c>
@@ -9350,7 +9379,7 @@
         <f t="shared" si="0"/>
         <v>267</v>
       </c>
-      <c r="F6" s="151">
+      <c r="F6" s="127">
         <f t="shared" si="1"/>
         <v>0.36575342465753424</v>
       </c>
@@ -9364,7 +9393,7 @@
         <f t="shared" si="2"/>
         <v>517</v>
       </c>
-      <c r="K6" s="151">
+      <c r="K6" s="127">
         <f t="shared" si="3"/>
         <v>0.48182665424044735</v>
       </c>
@@ -9378,12 +9407,12 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="P6" s="151">
+      <c r="P6" s="127">
         <f t="shared" si="5"/>
         <v>0.14356435643564355</v>
       </c>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C7" s="93">
         <v>1123</v>
       </c>
@@ -9394,7 +9423,7 @@
         <f t="shared" si="0"/>
         <v>323</v>
       </c>
-      <c r="F7" s="151">
+      <c r="F7" s="127">
         <f t="shared" si="1"/>
         <v>0.28762243989314334</v>
       </c>
@@ -9408,7 +9437,7 @@
         <f t="shared" si="2"/>
         <v>629</v>
       </c>
-      <c r="K7" s="151">
+      <c r="K7" s="127">
         <f t="shared" si="3"/>
         <v>0.39684542586750787</v>
       </c>
@@ -9422,12 +9451,12 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
-      <c r="P7" s="151">
+      <c r="P7" s="127">
         <f t="shared" si="5"/>
         <v>0.2606837606837607</v>
       </c>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C8" s="93">
         <v>1123</v>
       </c>
@@ -9438,7 +9467,7 @@
         <f t="shared" si="0"/>
         <v>334</v>
       </c>
-      <c r="F8" s="151">
+      <c r="F8" s="127">
         <f t="shared" si="1"/>
         <v>0.29741763134461263</v>
       </c>
@@ -9452,7 +9481,7 @@
         <f t="shared" si="2"/>
         <v>661</v>
       </c>
-      <c r="K8" s="151">
+      <c r="K8" s="127">
         <f t="shared" si="3"/>
         <v>0.39321832242712673</v>
       </c>
@@ -9466,12 +9495,12 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="P8" s="151">
+      <c r="P8" s="127">
         <f t="shared" si="5"/>
         <v>0.10902255639097744</v>
       </c>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C9" s="93">
         <v>1905</v>
       </c>
@@ -9482,7 +9511,7 @@
         <f t="shared" si="0"/>
         <v>432</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="127">
         <f t="shared" si="1"/>
         <v>0.22677165354330708</v>
       </c>
@@ -9496,7 +9525,7 @@
         <f t="shared" si="2"/>
         <v>853</v>
       </c>
-      <c r="K9" s="151">
+      <c r="K9" s="127">
         <f t="shared" si="3"/>
         <v>0.30453409496608352</v>
       </c>
@@ -9510,12 +9539,12 @@
         <f t="shared" si="4"/>
         <v>125</v>
       </c>
-      <c r="P9" s="151">
+      <c r="P9" s="127">
         <f t="shared" si="5"/>
         <v>0.41946308724832215</v>
       </c>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C10" s="93">
         <v>2024</v>
       </c>
@@ -9526,7 +9555,7 @@
         <f t="shared" si="0"/>
         <v>477</v>
       </c>
-      <c r="F10" s="151">
+      <c r="F10" s="127">
         <f t="shared" si="1"/>
         <v>0.23567193675889328</v>
       </c>
@@ -9540,7 +9569,7 @@
         <f t="shared" si="2"/>
         <v>901</v>
       </c>
-      <c r="K10" s="151">
+      <c r="K10" s="127">
         <f t="shared" si="3"/>
         <v>0.30594227504244481</v>
       </c>
@@ -9554,12 +9583,12 @@
         <f t="shared" si="4"/>
         <v>77</v>
       </c>
-      <c r="P10" s="151">
+      <c r="P10" s="127">
         <f t="shared" si="5"/>
         <v>0.22254335260115607</v>
       </c>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C11" s="93">
         <v>3266</v>
       </c>
@@ -9570,7 +9599,7 @@
         <f t="shared" si="0"/>
         <v>547</v>
       </c>
-      <c r="F11" s="151">
+      <c r="F11" s="127">
         <f t="shared" si="1"/>
         <v>0.16748315982853643</v>
       </c>
@@ -9584,7 +9613,7 @@
         <f t="shared" si="2"/>
         <v>1109</v>
       </c>
-      <c r="K11" s="151">
+      <c r="K11" s="127">
         <f t="shared" si="3"/>
         <v>0.23327724021876314</v>
       </c>
@@ -9598,12 +9627,12 @@
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="P11" s="151">
+      <c r="P11" s="127">
         <f t="shared" si="5"/>
         <v>0.39847715736040606</v>
       </c>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C12" s="93">
         <v>3627</v>
       </c>
@@ -9614,7 +9643,7 @@
         <f t="shared" si="0"/>
         <v>488</v>
       </c>
-      <c r="F12" s="151">
+      <c r="F12" s="127">
         <f t="shared" si="1"/>
         <v>0.13454645712710228</v>
       </c>
@@ -9628,7 +9657,7 @@
         <f t="shared" si="2"/>
         <v>1173</v>
       </c>
-      <c r="K12" s="151">
+      <c r="K12" s="127">
         <f t="shared" si="3"/>
         <v>0.24027038099139697</v>
       </c>
@@ -9642,12 +9671,12 @@
         <f t="shared" si="4"/>
         <v>93</v>
       </c>
-      <c r="P12" s="151">
+      <c r="P12" s="127">
         <f t="shared" si="5"/>
         <v>0.20305676855895197</v>
       </c>
     </row>
-    <row r="13" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="95">
         <v>3498</v>
       </c>
@@ -9658,7 +9687,7 @@
         <f t="shared" si="0"/>
         <v>619</v>
       </c>
-      <c r="F13" s="151">
+      <c r="F13" s="127">
         <f t="shared" si="1"/>
         <v>0.17695826186392224</v>
       </c>
@@ -9672,7 +9701,7 @@
         <f t="shared" si="2"/>
         <v>1237</v>
       </c>
-      <c r="K13" s="151">
+      <c r="K13" s="127">
         <f t="shared" si="3"/>
         <v>0.24075515764889061</v>
       </c>
@@ -9686,20 +9715,20 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="P13" s="151">
+      <c r="P13" s="127">
         <f t="shared" si="5"/>
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="K14" s="151"/>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="K14" s="127"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
-      <c r="E15" s="152">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E15" s="128">
         <f>AVERAGE(E4:E13)</f>
         <v>393.9</v>
       </c>
-      <c r="F15" s="151">
+      <c r="F15" s="127">
         <f>AVERAGE(F4:F13)</f>
         <v>0.26995680452936932</v>
       </c>
@@ -9707,7 +9736,7 @@
         <f>AVERAGE(J4:J13)</f>
         <v>794.6</v>
       </c>
-      <c r="K15" s="151">
+      <c r="K15" s="127">
         <f>AVERAGE(K4:K13)</f>
         <v>0.36352385137128745</v>
       </c>
@@ -9715,7 +9744,7 @@
         <f>AVERAGE(O4:O13)</f>
         <v>68.2</v>
       </c>
-      <c r="P15" s="151">
+      <c r="P15" s="127">
         <f>AVERAGE(P4:P13)</f>
         <v>0.23202643313597693</v>
       </c>
